--- a/data/hotels_by_city/Houston/Houston_shard_179.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_179.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d4028463-Reviews-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Days-Inn-By-Wyndham-Baytown-East.h4316129.Hotel-Information?chkin=7%2F15%2F2018&amp;chkout=7%2F16%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530841894387&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=44a8483c-40c0-4414-ab9d-1c9046edfec1&amp;mctc=9&amp;exp_dp=78&amp;exp_ts=1530841894939&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,310 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r524089057-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>4028463</t>
+  </si>
+  <si>
+    <t>524089057</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Last minute overnight stay</t>
+  </si>
+  <si>
+    <t>The check-in was extremely slow but the room was just what we needed after driving all day (road trip). Glad the front desk was open at 2am and the bed was perfect. The room was clean and we fresh towels waiting. No complaints.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r502311791-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>502311791</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r488290920-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>488290920</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r466780568-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>466780568</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Lazy front desk</t>
+  </si>
+  <si>
+    <t>Rooms clean , if you want breakfast be there at 5:30 am , front desk attendant refused to refill coffee , eggs and waffles where frozen in a zip lock bag laying in bottom of the fridge ,no bread , I asked him to restock his response was to hand me a honey bun type of pastry..</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r465599015-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>465599015</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff wasn't to friendly, but the room was clean and close to my business location. Easy check in and check out. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r465079282-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>465079282</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Days inn east</t>
+  </si>
+  <si>
+    <t>Rooms very clean nice and quiet. My check in was not at time on contract 1:30 i was let to check in at 3 pm.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r386754848-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>386754848</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>One Night Away</t>
+  </si>
+  <si>
+    <t>My husband and I decided to stay at this location, Sunday night after spending all day in our house in the sweltering heat. This was due to our power line being snapped by a tree branch that fell due partly to a thunderstorm that rolled in on Saturday evening and our power being cut completely in the early morning hours on Sunday.
+Upon arrival the desk clerk was very kind and helpful though very quite. Check in was simple, no frills. I do not recall him telling us about breakfast or any other information that might be helpful if we were not avid about reading the website or the signs in the lobby. 
+Once we parked and entered our room we adjusted the ac, which was hassle free. Our room also had a ceiling fan over the bed which was a nice touch after being in a hot house all day. The bathroom is equipped with a shower/tub combo which is a pleasant surprise. There is a mini-coffe pot with a single coffee pod available for those who need coffee though you'll probably want your own coffee for personal reasons like caffeine strength. Below the coffee makers was a microwave and a mini fridge. The TV is attached to the wall and is equipped with comcast or directv and the quality comes in clear. So no issues should you need to watch the news or want to watch a tv...My husband and I decided to stay at this location, Sunday night after spending all day in our house in the sweltering heat. This was due to our power line being snapped by a tree branch that fell due partly to a thunderstorm that rolled in on Saturday evening and our power being cut completely in the early morning hours on Sunday.Upon arrival the desk clerk was very kind and helpful though very quite. Check in was simple, no frills. I do not recall him telling us about breakfast or any other information that might be helpful if we were not avid about reading the website or the signs in the lobby. Once we parked and entered our room we adjusted the ac, which was hassle free. Our room also had a ceiling fan over the bed which was a nice touch after being in a hot house all day. The bathroom is equipped with a shower/tub combo which is a pleasant surprise. There is a mini-coffe pot with a single coffee pod available for those who need coffee though you'll probably want your own coffee for personal reasons like caffeine strength. Below the coffee makers was a microwave and a mini fridge. The TV is attached to the wall and is equipped with comcast or directv and the quality comes in clear. So no issues should you need to watch the news or want to watch a tv show. After inspecting our bedding we crawled in for a good nights rest and while I got some good z's, I can't say I was completely comfortable with the mattress on my side, anyway. The pillows were nice and not too soft or too hard. Was able to get a good nights sleep without tossing and turning too much from the heat exhaustion we had received prior to checking in. None of the surrounding neighboring rooms were noisy in their room or outside in the parking lot, which means a lot when you're trying to rest up. Though at one point someone was either shuffling furniture in the room above us or stomping, not entirely sure but it didn't last long and it only woke me, not my husband.The only thing that was a bit bothersome for us was the plug-in in the room. Perhaps someone left it or the staff put it there to help ward off the stench of those who smoke, as they offer both smoking and non-smoking rooms. Either way we just simply unplugged it until we were getting ready to check out. Additional Information: Check-In is 1pm, Check-Out is 11am for anyone who is curious. I still am unsure what time breakfast begins or ends though the continental breakfast offers coffee, milk, juice, fruit, microwavable mini-sausage biscuits, honey buns, bagels, waffles and cereal. If you're looking for a heartier option than what they provide for breakfast, I suggest checking out surrounding restaurants. They hat at least one ice machine and one soda vending machine on the first floor from what we could see somewhere between rooms 106 and 110. There is reportedly a pool at this location, unfortunately we did not have time or interest to check it out during our stay. Also, internet is free and they give you the information to log on when you check-in. Lastly, this location does not accept pets (except, ADA defined service animals) for anyone that may be traveling with their furry friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>My husband and I decided to stay at this location, Sunday night after spending all day in our house in the sweltering heat. This was due to our power line being snapped by a tree branch that fell due partly to a thunderstorm that rolled in on Saturday evening and our power being cut completely in the early morning hours on Sunday.
+Upon arrival the desk clerk was very kind and helpful though very quite. Check in was simple, no frills. I do not recall him telling us about breakfast or any other information that might be helpful if we were not avid about reading the website or the signs in the lobby. 
+Once we parked and entered our room we adjusted the ac, which was hassle free. Our room also had a ceiling fan over the bed which was a nice touch after being in a hot house all day. The bathroom is equipped with a shower/tub combo which is a pleasant surprise. There is a mini-coffe pot with a single coffee pod available for those who need coffee though you'll probably want your own coffee for personal reasons like caffeine strength. Below the coffee makers was a microwave and a mini fridge. The TV is attached to the wall and is equipped with comcast or directv and the quality comes in clear. So no issues should you need to watch the news or want to watch a tv...My husband and I decided to stay at this location, Sunday night after spending all day in our house in the sweltering heat. This was due to our power line being snapped by a tree branch that fell due partly to a thunderstorm that rolled in on Saturday evening and our power being cut completely in the early morning hours on Sunday.Upon arrival the desk clerk was very kind and helpful though very quite. Check in was simple, no frills. I do not recall him telling us about breakfast or any other information that might be helpful if we were not avid about reading the website or the signs in the lobby. Once we parked and entered our room we adjusted the ac, which was hassle free. Our room also had a ceiling fan over the bed which was a nice touch after being in a hot house all day. The bathroom is equipped with a shower/tub combo which is a pleasant surprise. There is a mini-coffe pot with a single coffee pod available for those who need coffee though you'll probably want your own coffee for personal reasons like caffeine strength. Below the coffee makers was a microwave and a mini fridge. The TV is attached to the wall and is equipped with comcast or directv and the quality comes in clear. So no issues should you need to watch the news or want to watch a tv show. After inspecting our bedding we crawled in for a good nights rest and while I got some good z's, I can't say I was completely comfortable with the mattress on my side, anyway. The pillows were nice and not too soft or too hard. Was able to get a good nights sleep without tossing and turning too much from the heat exhaustion we had received prior to checking in. None of the surrounding neighboring rooms were noisy in their room or outside in the parking lot, which means a lot when you're trying to rest up. Though at one point someone was either shuffling furniture in the room above us or stomping, not entirely sure but it didn't last long and it only woke me, not my husband.The only thing that was a bit bothersome for us was the plug-in in the room. Perhaps someone left it or the staff put it there to help ward off the stench of those who smoke, as they offer both smoking and non-smoking rooms. Either way we just simply unplugged it until we were getting ready to check out. Additional Information: Check-In is 1pm, Check-Out is 11am for anyone who is curious. I still am unsure what time breakfast begins or ends though the continental breakfast offers coffee, milk, juice, fruit, microwavable mini-sausage biscuits, honey buns, bagels, waffles and cereal. If you're looking for a heartier option than what they provide for breakfast, I suggest checking out surrounding restaurants. They hat at least one ice machine and one soda vending machine on the first floor from what we could see somewhere between rooms 106 and 110. There is reportedly a pool at this location, unfortunately we did not have time or interest to check it out during our stay. Also, internet is free and they give you the information to log on when you check-in. Lastly, this location does not accept pets (except, ADA defined service animals) for anyone that may be traveling with their furry friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r383399725-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>383399725</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>New and well-kept</t>
+  </si>
+  <si>
+    <t>This is a very nice place to stay that is very reasonably priced.  The owners remember you after just a few stays and look to take care of you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r378631435-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>378631435</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Had a wedding to attend so reserved a room at the Days Inn in Baytown.. Staff was polite and room clean.. We would stay there again..</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r354188560-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>354188560</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Lacking in customer service.....</t>
+  </si>
+  <si>
+    <t>Check in was a nightmare... After driving for two days get to hotel and it looked like they couldn't find our reservation, then we were told there was an extra charge for an adult, I guess you can only have two adults in each room even though capacity is for four. Then when we enter the room there is TWO pillows on each bed and TWO towels in the bathroom. And don't even call for more towels, you'll have to go get them yourself. It is a well monitored property, just step outside your room and one of the family members will walk by to make sure you are okay (or not stealing, I guess). It just made us feel uncomfortable and watched. Overall, the hotel is clean, but sparse on amenities and extremely lacking in service. We moved to the other Days Inn in Baytown and were extremely satisfied with our stay there as we were in town for a week. My advice, call them for a room...MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Check in was a nightmare... After driving for two days get to hotel and it looked like they couldn't find our reservation, then we were told there was an extra charge for an adult, I guess you can only have two adults in each room even though capacity is for four. Then when we enter the room there is TWO pillows on each bed and TWO towels in the bathroom. And don't even call for more towels, you'll have to go get them yourself. It is a well monitored property, just step outside your room and one of the family members will walk by to make sure you are okay (or not stealing, I guess). It just made us feel uncomfortable and watched. Overall, the hotel is clean, but sparse on amenities and extremely lacking in service. We moved to the other Days Inn in Baytown and were extremely satisfied with our stay there as we were in town for a week. My advice, call them for a room...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r327808010-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>327808010</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r327722900-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>327722900</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Inside rooms</t>
+  </si>
+  <si>
+    <t>It was very musty smelling and we found a roach in our room. The woman that was at the desk when we checked in was very rude. We have stayed here about 5 times but my husband wasn't happy this time. Had other issues with our friends' room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r274165384-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>274165384</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Clean and great tv</t>
+  </si>
+  <si>
+    <t>Appears to be recently renovated so extra clean which is nice. Linens, surfaces, carpets all spotless. Satellite TV offers a plethora of channels with HBO, Cinemax each with multiple selections so you don't get bored just sitting in your room flipping through channels. Air condition worked well and was nice and quiet, not waking you up each time the compressor kicked on. Has a, rare for hotels rooms,ceiling fan which worked well and really benefited sleeping comfort. Check in was a breeze, being only asked for ID. No credit card that I booked with, no form to sign for pet damage and whatever else, no car license plate number.  Nothing. While they do advertise "breakfast", big breakfast lovers beware. Cold cereal, store bought packaged honey buns, breakfast bars, muffins and bananas are the lot of it.   MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Appears to be recently renovated so extra clean which is nice. Linens, surfaces, carpets all spotless. Satellite TV offers a plethora of channels with HBO, Cinemax each with multiple selections so you don't get bored just sitting in your room flipping through channels. Air condition worked well and was nice and quiet, not waking you up each time the compressor kicked on. Has a, rare for hotels rooms,ceiling fan which worked well and really benefited sleeping comfort. Check in was a breeze, being only asked for ID. No credit card that I booked with, no form to sign for pet damage and whatever else, no car license plate number.  Nothing. While they do advertise "breakfast", big breakfast lovers beware. Cold cereal, store bought packaged honey buns, breakfast bars, muffins and bananas are the lot of it.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r212201338-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>212201338</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>adequate for the price</t>
+  </si>
+  <si>
+    <t>comfortable room, lobby had an overwhelming food odor, although no food was visible.  in our room, huge stain on carpet....i find that inexcusable...a cheap walmart shampooer can clean spots in no time...huge turn off to walk in a see carpet stains.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r206111848-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>206111848</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Little hidden</t>
+  </si>
+  <si>
+    <t>Went there in March for work. Only hotel south of the interstate, stayed for about 5 weeks. Price is a bit high, rooms are pretty modern, quiet, pretty safe, only one entrance. Pros: decent location for Mont Belvieu, modern rooms, comfortable ac and fan setup.Cons: Price deviations, stairs are difficult to climb and awkward vehicle entrance.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r120166316-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>120166316</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>Just for an On-the-road overnighter - YUCK</t>
+  </si>
+  <si>
+    <t>Convenient location, just off the highway and a good 40 min out of Houston.  Quite new, yet has cockroaches.  YUCK.  They offered a complimentary breakfast _ no thanks after seeing the roaches.  Just wanted to get out of there.  Has breakfast a Jack in the Box down the road.Too bad, given that the hotel is quite new and they are already letting it go.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +842,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +874,1115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_179.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_179.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,30 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r597496376-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>4028463</t>
+  </si>
+  <si>
+    <t>597496376</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights and the room was clean. The staff was helpful. Wish they had a pool. Free breakfast is always a plus! For us it was perfect because we just wanted to have a kid free weekend and not go too far from home.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r560267777-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>560267777</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r524089057-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>4028463</t>
-  </si>
-  <si>
     <t>524089057</t>
   </si>
   <si>
     <t>09/13/2017</t>
   </si>
   <si>
-    <t>Last minute overnight stay</t>
-  </si>
-  <si>
-    <t>The check-in was extremely slow but the room was just what we needed after driving all day (road trip). Glad the front desk was open at 2am and the bed was perfect. The room was clean and we fresh towels waiting. No complaints.</t>
-  </si>
-  <si>
     <t>September 2017</t>
   </si>
   <si>
@@ -201,16 +234,31 @@
     <t>05/27/2017</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r487772815-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>487772815</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r487317389-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>487317389</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Restful Oasis</t>
+  </si>
+  <si>
+    <t>We arrived late after a 10 hr drive. Reception area well decorated and welcoming, staff very helpful. Our room was huge, very clean with a comfortable bed. My biggest issue was the towels were small and threadbare impossible to use a second time , I mentioned to the owner who just smiled asking woukd we like more towels.  Forgetting to check on breakfast time we arrived at 7.45am to find very little left as breakfast closes at 8am. The hotel was very quiet allowing us to rest. Woukd definitely recommend just ask for extra towels.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r466780568-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
@@ -262,6 +310,42 @@
   </si>
   <si>
     <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r451514709-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>451514709</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Delightful hotel on Hwy 146 close to IH-10</t>
+  </si>
+  <si>
+    <t>This hotel is a great stop for anyone traveling across I-10. It is only about a mile from the exit, south of I-10. It is quick, quite and convient.In the morning head south on 146 about a mile to Dillons donuts on the left and have a great Texas treat, a Kolache with cheese and sausage inside. Follow up with a apple fritter. What a great stop.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r418792389-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>418792389</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>The hotel was nice, clean and comfortable.  Stayed for two nights due to working in Mont Belvieu.  A little further from the job site than I would like but, worth the drive in exchange for the rate of the room.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r386754848-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
@@ -325,6 +409,33 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r376220703-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>376220703</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working in the area, I have stayed in the hotel 4 to 5 nights a week for the past year. It's very clean, and kept up. T  </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r371579220-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>371579220</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r354188560-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
   </si>
   <si>
@@ -376,6 +487,33 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r321909517-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>321909517</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r286580031-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>286580031</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Magnuson Hotel. It was DaysInn. The room was big and has a microwave and a fridge. Perfume or scent they used in the room wasn't good. It actually made me dizzy. Other than that it was okay. They do have breakfast included. (Some apples, bananas, toasts, muffins, and cereal) No Waffle. (Im a fan of Waffle) haha. Staffs are good. Nothing bad. But nothing special. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r274165384-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
   </si>
   <si>
@@ -431,6 +569,39 @@
   </si>
   <si>
     <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r203121508-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203121508</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>One of the cleanest places I've stayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel seemed a little under the radar. It didnt come up on the list of hotels near the Houston raceway so we didnt even know about it. We found out about it from ppl we met and they had one vacancy left. The room was immaculately clean. Looked almost brand new. Very very clean and nice. Clean and good food at the continental breakfast area. Staff was very nice. Just the cleanliness will have me coming back. I've never seen a hotel so spotless. Loved it so much. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r160219286-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>160219286</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Excellent for the price</t>
+  </si>
+  <si>
+    <t>This hotel i was told started in 2011 and by 2013 still appears very brand new.  The rooms are decent size with breakfast as early as 5:30am. For under $100 for the room i find this an excellent choice. Rooms were very clean and had a good size flat panel TV. I guess best for Travelers driving towards Louisana/Missisippi or Houston wanting to rest take a break from long long ride and sleeping overnite. Overall very decent hotel.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d4028463-r120166316-Days_Inn_by_Wyndham_Baytown_East-Baytown_Texas.html</t>
@@ -992,20 +1163,20 @@
         <v>52</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1044,38 +1215,42 @@
         <v>55</v>
       </c>
       <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1090,7 +1265,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1099,17 +1274,15 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s"/>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
+      <c r="L4" t="s"/>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>62</v>
@@ -1118,29 +1291,27 @@
         <v>63</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
         <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
-      <c r="Y4" t="s">
-        <v>64</v>
-      </c>
+      <c r="Y4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1155,7 +1326,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1164,50 +1335,44 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>67</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>68</v>
       </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
-      <c r="Y5" t="s">
-        <v>69</v>
-      </c>
+      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1222,7 +1387,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1231,41 +1396,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>72</v>
-      </c>
-      <c r="J6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
       </c>
       <c r="O6" t="s">
         <v>52</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1273,7 +1436,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1289,7 +1452,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1298,22 +1461,18 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" t="s">
-        <v>80</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
         <v>63</v>
@@ -1325,23 +1484,21 @@
         <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1356,7 +1513,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1365,37 +1522,33 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1403,7 +1556,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1419,7 +1572,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1428,41 +1581,41 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
         <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1470,7 +1623,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1486,7 +1639,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1495,25 +1648,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1525,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1537,7 +1690,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -1553,7 +1706,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1562,37 +1715,41 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1600,7 +1757,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -1616,7 +1773,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1625,31 +1782,35 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
       <c r="L12" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1657,7 +1818,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -1673,7 +1834,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1682,41 +1843,35 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1724,7 +1879,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -1740,7 +1895,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1749,39 +1904,45 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1797,7 +1958,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1806,41 +1967,41 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1848,7 +2009,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
@@ -1864,7 +2025,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1873,41 +2034,41 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
         <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1915,7 +2076,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -1931,7 +2092,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -1940,41 +2101,41 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1982,7 +2143,757 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>127</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
         <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" t="s">
+        <v>168</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>169</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" t="s">
+        <v>175</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" t="s">
+        <v>154</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s">
+        <v>128</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61369</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
